--- a/数据统计/201905/广州五月份模型数据统计.xlsx
+++ b/数据统计/201905/广州五月份模型数据统计.xlsx
@@ -10,16 +10,16 @@
     <sheet name="2019五月份模型总览" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019五月份模型总览'!$G$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019五月份模型总览'!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
-  <si>
-    <t>结果时间</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>提交模型方</t>
@@ -37,10 +37,7 @@
     <t>转换数量</t>
   </si>
   <si>
-    <t>模型类别</t>
-  </si>
-  <si>
-    <t>2019-04-19</t>
+    <t>20190419</t>
   </si>
   <si>
     <t>广州（邱总）</t>
@@ -52,16 +49,13 @@
     <t>电信-比亚迪a-20190418-全国</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>dt1417</t>
   </si>
   <si>
     <t>电信-比亚迪b-20190418-全国</t>
   </si>
   <si>
-    <t>2019-04-20</t>
+    <t>20190420</t>
   </si>
   <si>
     <t>dt1432</t>
@@ -70,10 +64,7 @@
     <t>股票-20190419-湖南</t>
   </si>
   <si>
-    <t>股票</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
+    <t>20190426</t>
   </si>
   <si>
     <t>dt1500</t>
@@ -82,7 +73,7 @@
     <t>汽车G-20190425-全国</t>
   </si>
   <si>
-    <t>2019-05-06</t>
+    <t>20190506</t>
   </si>
   <si>
     <t>dt1555</t>
@@ -97,7 +88,7 @@
     <t>股票G-20190505-广东，湖南-5000</t>
   </si>
   <si>
-    <t>2019-05-09</t>
+    <t>20190509</t>
   </si>
   <si>
     <t>dt1599</t>
@@ -106,10 +97,10 @@
     <t>车型GQ-20190508-全国-1天</t>
   </si>
   <si>
-    <t>2019-05-16</t>
-  </si>
-  <si>
-    <t>广州(邓总)</t>
+    <t>20190516</t>
+  </si>
+  <si>
+    <t>广州（邓总）</t>
   </si>
   <si>
     <t>dt1614</t>
@@ -118,7 +109,7 @@
     <t>贷款</t>
   </si>
   <si>
-    <t>2019-05-23</t>
+    <t>20190523</t>
   </si>
   <si>
     <t>dt1794</t>
@@ -127,10 +118,7 @@
     <t>保险规划师Q-20190522-全国</t>
   </si>
   <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>2019-05-24</t>
+    <t>20190524</t>
   </si>
   <si>
     <t>dt1806</t>
@@ -139,7 +127,52 @@
     <t>保险规划师Q-20190523-广东</t>
   </si>
   <si>
-    <t>合计</t>
+    <t>dt1848</t>
+  </si>
+  <si>
+    <t>民生证券GQ-20190529-广东-1W</t>
+  </si>
+  <si>
+    <t>移动SJ-POS</t>
+  </si>
+  <si>
+    <t>邱总</t>
+  </si>
+  <si>
+    <t>民生证券</t>
+  </si>
+  <si>
+    <t>从之前的测试sj中抽取</t>
+  </si>
+  <si>
+    <t>移动sj(新模型)-POS</t>
+  </si>
+  <si>
+    <t>dt2112</t>
+  </si>
+  <si>
+    <t>车贷0627-联通-1w</t>
+  </si>
+  <si>
+    <t>实际用了300条</t>
+  </si>
+  <si>
+    <t>dt2291</t>
+  </si>
+  <si>
+    <t>公积金0710-联通-1w</t>
+  </si>
+  <si>
+    <t>dt2293</t>
+  </si>
+  <si>
+    <t>邢帅教育0710-联通-1w</t>
+  </si>
+  <si>
+    <t>dt2346</t>
+  </si>
+  <si>
+    <t>麻省医疗0712-联通-1w</t>
   </si>
 </sst>
 </file>
@@ -147,8 +180,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -169,8 +202,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +240,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,7 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,112 +345,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -322,13 +355,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +463,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,157 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +546,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,28 +614,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +806,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1117,10 +1147,11 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,261 +1170,375 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
-        <v>95</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
-        <v>63</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>133</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
-        <v>133</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12743</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5">
-        <v>12743</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>698</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
         <v>1899</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
         <v>6327</v>
       </c>
       <c r="F8" s="2">
         <v>2000</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>2855</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>1633</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
         <v>98338</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>20190530</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9849</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="2">
+        <v>20190613</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="2">
+        <v>20190618</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3">
-        <f>SUM(E2:E11)</f>
-        <v>124784</v>
-      </c>
-      <c r="F12" s="3">
-        <f>SUM(F2:F11)</f>
-        <v>3000</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="2">
+        <v>20190624</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20190627</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3929</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3929</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20190712</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2">
+        <v>728</v>
+      </c>
+      <c r="F17" s="2">
+        <v>728</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20190712</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1223</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1223</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20190715</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2">
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
